--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Ptprc-Mrc1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Ptprc-Mrc1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -88,13 +91,13 @@
     <t>Neutro</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Ptprc</t>
   </si>
   <si>
     <t>Mrc1</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.160506885276019</v>
+        <v>0.2529583333333333</v>
       </c>
       <c r="H2">
-        <v>0.160506885276019</v>
+        <v>0.758875</v>
       </c>
       <c r="I2">
-        <v>0.0001330528474950822</v>
+        <v>0.0001995854867641919</v>
       </c>
       <c r="J2">
-        <v>0.0001330528474950822</v>
+        <v>0.0001995854867641919</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.0479429435210813</v>
+        <v>0.06687900000000001</v>
       </c>
       <c r="N2">
-        <v>0.0479429435210813</v>
+        <v>0.200637</v>
       </c>
       <c r="O2">
-        <v>0.0001807967194244189</v>
+        <v>0.0002451038787796015</v>
       </c>
       <c r="P2">
-        <v>0.0001807967194244189</v>
+        <v>0.0002451038787796015</v>
       </c>
       <c r="Q2">
-        <v>0.007695172535532854</v>
+        <v>0.016917600375</v>
       </c>
       <c r="R2">
-        <v>0.007695172535532854</v>
+        <v>0.152258403375</v>
       </c>
       <c r="S2">
-        <v>2.405551833718837E-08</v>
+        <v>4.891917695401827E-08</v>
       </c>
       <c r="T2">
-        <v>2.405551833718837E-08</v>
+        <v>4.891917695401825E-08</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.160506885276019</v>
+        <v>0.2529583333333333</v>
       </c>
       <c r="H3">
-        <v>0.160506885276019</v>
+        <v>0.758875</v>
       </c>
       <c r="I3">
-        <v>0.0001330528474950822</v>
+        <v>0.0001995854867641919</v>
       </c>
       <c r="J3">
-        <v>0.0001330528474950822</v>
+        <v>0.0001995854867641919</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>90.4100306999331</v>
+        <v>0.050766</v>
       </c>
       <c r="N3">
-        <v>90.4100306999331</v>
+        <v>0.152298</v>
       </c>
       <c r="O3">
-        <v>0.3409435414915934</v>
+        <v>0.0001860515783747552</v>
       </c>
       <c r="P3">
-        <v>0.3409435414915934</v>
+        <v>0.0001860515783747551</v>
       </c>
       <c r="Q3">
-        <v>14.51143242535552</v>
+        <v>0.01284168275</v>
       </c>
       <c r="R3">
-        <v>14.51143242535552</v>
+        <v>0.11557514475</v>
       </c>
       <c r="S3">
-        <v>4.53635090305142E-05</v>
+        <v>3.713319483317172E-08</v>
       </c>
       <c r="T3">
-        <v>4.53635090305142E-05</v>
+        <v>3.71331948331717E-08</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.160506885276019</v>
+        <v>0.2529583333333333</v>
       </c>
       <c r="H4">
-        <v>0.160506885276019</v>
+        <v>0.758875</v>
       </c>
       <c r="I4">
-        <v>0.0001330528474950822</v>
+        <v>0.0001995854867641919</v>
       </c>
       <c r="J4">
-        <v>0.0001330528474950822</v>
+        <v>0.0001995854867641919</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>117.96008869664</v>
+        <v>92.54253899999999</v>
       </c>
       <c r="N4">
-        <v>117.96008869664</v>
+        <v>277.627617</v>
       </c>
       <c r="O4">
-        <v>0.4448370394693902</v>
+        <v>0.3391578112862415</v>
       </c>
       <c r="P4">
-        <v>0.4448370394693902</v>
+        <v>0.3391578112862414</v>
       </c>
       <c r="Q4">
-        <v>18.93340642358062</v>
+        <v>23.409406427875</v>
       </c>
       <c r="R4">
-        <v>18.93340642358062</v>
+        <v>210.684657850875</v>
       </c>
       <c r="S4">
-        <v>5.918683477268462E-05</v>
+        <v>6.769097685544245E-05</v>
       </c>
       <c r="T4">
-        <v>5.918683477268462E-05</v>
+        <v>6.769097685544244E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.160506885276019</v>
+        <v>0.2529583333333333</v>
       </c>
       <c r="H5">
-        <v>0.160506885276019</v>
+        <v>0.758875</v>
       </c>
       <c r="I5">
-        <v>0.0001330528474950822</v>
+        <v>0.0001995854867641919</v>
       </c>
       <c r="J5">
-        <v>0.0001330528474950822</v>
+        <v>0.0001995854867641919</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>56.681934886347</v>
+        <v>120.4648306666667</v>
       </c>
       <c r="N5">
-        <v>56.681934886347</v>
+        <v>361.394492</v>
       </c>
       <c r="O5">
-        <v>0.2137521629971236</v>
+        <v>0.4414898137371655</v>
       </c>
       <c r="P5">
-        <v>0.2137521629971236</v>
+        <v>0.4414898137371654</v>
       </c>
       <c r="Q5">
-        <v>9.097840820025677</v>
+        <v>30.47258279072222</v>
       </c>
       <c r="R5">
-        <v>9.097840820025677</v>
+        <v>274.2532451165</v>
       </c>
       <c r="S5">
-        <v>2.844033394500023E-05</v>
+        <v>8.811495937616461E-05</v>
       </c>
       <c r="T5">
-        <v>2.844033394500023E-05</v>
+        <v>8.811495937616457E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.160506885276019</v>
+        <v>0.2529583333333333</v>
       </c>
       <c r="H6">
-        <v>0.160506885276019</v>
+        <v>0.758875</v>
       </c>
       <c r="I6">
-        <v>0.0001330528474950822</v>
+        <v>0.0001995854867641919</v>
       </c>
       <c r="J6">
-        <v>0.0001330528474950822</v>
+        <v>0.0001995854867641919</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.0759621256508906</v>
+        <v>59.65883133333333</v>
       </c>
       <c r="N6">
-        <v>0.0759621256508906</v>
+        <v>178.976494</v>
       </c>
       <c r="O6">
-        <v>0.0002864593224683333</v>
+        <v>0.2186427871717284</v>
       </c>
       <c r="P6">
-        <v>0.0002864593224683333</v>
+        <v>0.2186427871717284</v>
       </c>
       <c r="Q6">
-        <v>0.01219244418717004</v>
+        <v>15.09119854269444</v>
       </c>
       <c r="R6">
-        <v>0.01219244418717004</v>
+        <v>135.82078688425</v>
       </c>
       <c r="S6">
-        <v>3.811422854592372E-08</v>
+        <v>4.363792710514904E-05</v>
       </c>
       <c r="T6">
-        <v>3.811422854592372E-08</v>
+        <v>4.363792710514903E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>271.29533028934</v>
+        <v>0.2529583333333333</v>
       </c>
       <c r="H7">
-        <v>271.29533028934</v>
+        <v>0.758875</v>
       </c>
       <c r="I7">
-        <v>0.2248913879615893</v>
+        <v>0.0001995854867641919</v>
       </c>
       <c r="J7">
-        <v>0.2248913879615893</v>
+        <v>0.0001995854867641919</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.0479429435210813</v>
+        <v>0.075973</v>
       </c>
       <c r="N7">
-        <v>0.0479429435210813</v>
+        <v>0.227919</v>
       </c>
       <c r="O7">
-        <v>0.0001807967194244189</v>
+        <v>0.0002784323477103824</v>
       </c>
       <c r="P7">
-        <v>0.0001807967194244189</v>
+        <v>0.0002784323477103824</v>
       </c>
       <c r="Q7">
-        <v>13.00669669759492</v>
+        <v>0.01921800345833333</v>
       </c>
       <c r="R7">
-        <v>13.00669669759492</v>
+        <v>0.172962031125</v>
       </c>
       <c r="S7">
-        <v>4.06596251702596E-05</v>
+        <v>5.557105564867342E-08</v>
       </c>
       <c r="T7">
-        <v>4.06596251702596E-05</v>
+        <v>5.55710556486734E-08</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>271.29533028934</v>
+        <v>0.023137</v>
       </c>
       <c r="H8">
-        <v>271.29533028934</v>
+        <v>0.069411</v>
       </c>
       <c r="I8">
-        <v>0.2248913879615893</v>
+        <v>1.825521755465568E-05</v>
       </c>
       <c r="J8">
-        <v>0.2248913879615893</v>
+        <v>1.825521755465568E-05</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>90.4100306999331</v>
+        <v>0.06687900000000001</v>
       </c>
       <c r="N8">
-        <v>90.4100306999331</v>
+        <v>0.200637</v>
       </c>
       <c r="O8">
-        <v>0.3409435414915934</v>
+        <v>0.0002451038787796015</v>
       </c>
       <c r="P8">
-        <v>0.3409435414915934</v>
+        <v>0.0002451038787796015</v>
       </c>
       <c r="Q8">
-        <v>24527.81914020772</v>
+        <v>0.001547379423</v>
       </c>
       <c r="R8">
-        <v>24527.81914020772</v>
+        <v>0.013926414807</v>
       </c>
       <c r="S8">
-        <v>0.07667526626258417</v>
+        <v>4.474424630611579E-09</v>
       </c>
       <c r="T8">
-        <v>0.07667526626258417</v>
+        <v>4.474424630611579E-09</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>271.29533028934</v>
+        <v>0.023137</v>
       </c>
       <c r="H9">
-        <v>271.29533028934</v>
+        <v>0.069411</v>
       </c>
       <c r="I9">
-        <v>0.2248913879615893</v>
+        <v>1.825521755465568E-05</v>
       </c>
       <c r="J9">
-        <v>0.2248913879615893</v>
+        <v>1.825521755465568E-05</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>117.96008869664</v>
+        <v>0.050766</v>
       </c>
       <c r="N9">
-        <v>117.96008869664</v>
+        <v>0.152298</v>
       </c>
       <c r="O9">
-        <v>0.4448370394693902</v>
+        <v>0.0001860515783747552</v>
       </c>
       <c r="P9">
-        <v>0.4448370394693902</v>
+        <v>0.0001860515783747551</v>
       </c>
       <c r="Q9">
-        <v>32002.02122391479</v>
+        <v>0.001174572942</v>
       </c>
       <c r="R9">
-        <v>32002.02122391479</v>
+        <v>0.010571156478</v>
       </c>
       <c r="S9">
-        <v>0.1000400192229954</v>
+        <v>3.396412039618227E-09</v>
       </c>
       <c r="T9">
-        <v>0.1000400192229954</v>
+        <v>3.396412039618226E-09</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>271.29533028934</v>
+        <v>0.023137</v>
       </c>
       <c r="H10">
-        <v>271.29533028934</v>
+        <v>0.069411</v>
       </c>
       <c r="I10">
-        <v>0.2248913879615893</v>
+        <v>1.825521755465568E-05</v>
       </c>
       <c r="J10">
-        <v>0.2248913879615893</v>
+        <v>1.825521755465568E-05</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>56.681934886347</v>
+        <v>92.54253899999999</v>
       </c>
       <c r="N10">
-        <v>56.681934886347</v>
+        <v>277.627617</v>
       </c>
       <c r="O10">
-        <v>0.2137521629971236</v>
+        <v>0.3391578112862415</v>
       </c>
       <c r="P10">
-        <v>0.2137521629971236</v>
+        <v>0.3391578112862414</v>
       </c>
       <c r="Q10">
-        <v>15377.54424643037</v>
+        <v>2.141156724843</v>
       </c>
       <c r="R10">
-        <v>15377.54424643037</v>
+        <v>19.270410523587</v>
       </c>
       <c r="S10">
-        <v>0.04807102061621499</v>
+        <v>6.191399630391192E-06</v>
       </c>
       <c r="T10">
-        <v>0.04807102061621499</v>
+        <v>6.191399630391191E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>271.29533028934</v>
+        <v>0.023137</v>
       </c>
       <c r="H11">
-        <v>271.29533028934</v>
+        <v>0.069411</v>
       </c>
       <c r="I11">
-        <v>0.2248913879615893</v>
+        <v>1.825521755465568E-05</v>
       </c>
       <c r="J11">
-        <v>0.2248913879615893</v>
+        <v>1.825521755465568E-05</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.0759621256508906</v>
+        <v>120.4648306666667</v>
       </c>
       <c r="N11">
-        <v>0.0759621256508906</v>
+        <v>361.394492</v>
       </c>
       <c r="O11">
-        <v>0.0002864593224683333</v>
+        <v>0.4414898137371655</v>
       </c>
       <c r="P11">
-        <v>0.0002864593224683333</v>
+        <v>0.4414898137371654</v>
       </c>
       <c r="Q11">
-        <v>20.60816996793871</v>
+        <v>2.787194787134667</v>
       </c>
       <c r="R11">
-        <v>20.60816996793871</v>
+        <v>25.084753084212</v>
       </c>
       <c r="S11">
-        <v>6.442223462443997E-05</v>
+        <v>8.059492597936369E-06</v>
       </c>
       <c r="T11">
-        <v>6.442223462443997E-05</v>
+        <v>8.059492597936368E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>383.638815465241</v>
+        <v>0.023137</v>
       </c>
       <c r="H12">
-        <v>383.638815465241</v>
+        <v>0.069411</v>
       </c>
       <c r="I12">
-        <v>0.3180189854130644</v>
+        <v>1.825521755465568E-05</v>
       </c>
       <c r="J12">
-        <v>0.3180189854130644</v>
+        <v>1.825521755465568E-05</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.0479429435210813</v>
+        <v>59.65883133333333</v>
       </c>
       <c r="N12">
-        <v>0.0479429435210813</v>
+        <v>178.976494</v>
       </c>
       <c r="O12">
-        <v>0.0001807967194244189</v>
+        <v>0.2186427871717284</v>
       </c>
       <c r="P12">
-        <v>0.0001807967194244189</v>
+        <v>0.2186427871717284</v>
       </c>
       <c r="Q12">
-        <v>18.39277406234458</v>
+        <v>1.380326380559333</v>
       </c>
       <c r="R12">
-        <v>18.39277406234458</v>
+        <v>12.422937425034</v>
       </c>
       <c r="S12">
-        <v>5.749678927736416E-05</v>
+        <v>3.991371646576182E-06</v>
       </c>
       <c r="T12">
-        <v>5.749678927736416E-05</v>
+        <v>3.991371646576181E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>383.638815465241</v>
+        <v>0.023137</v>
       </c>
       <c r="H13">
-        <v>383.638815465241</v>
+        <v>0.069411</v>
       </c>
       <c r="I13">
-        <v>0.3180189854130644</v>
+        <v>1.825521755465568E-05</v>
       </c>
       <c r="J13">
-        <v>0.3180189854130644</v>
+        <v>1.825521755465568E-05</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>90.4100306999331</v>
+        <v>0.075973</v>
       </c>
       <c r="N13">
-        <v>90.4100306999331</v>
+        <v>0.227919</v>
       </c>
       <c r="O13">
-        <v>0.3409435414915934</v>
+        <v>0.0002784323477103824</v>
       </c>
       <c r="P13">
-        <v>0.3409435414915934</v>
+        <v>0.0002784323477103824</v>
       </c>
       <c r="Q13">
-        <v>34684.79708389841</v>
+        <v>0.001757787301</v>
       </c>
       <c r="R13">
-        <v>34684.79708389841</v>
+        <v>0.015820085709</v>
       </c>
       <c r="S13">
-        <v>0.1084265191482936</v>
+        <v>5.082843081706566E-09</v>
       </c>
       <c r="T13">
-        <v>0.1084265191482936</v>
+        <v>5.082843081706565E-09</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>383.638815465241</v>
+        <v>307.5605876666667</v>
       </c>
       <c r="H14">
-        <v>383.638815465241</v>
+        <v>922.681763</v>
       </c>
       <c r="I14">
-        <v>0.3180189854130644</v>
+        <v>0.2426669593764425</v>
       </c>
       <c r="J14">
-        <v>0.3180189854130644</v>
+        <v>0.2426669593764425</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>117.96008869664</v>
+        <v>0.06687900000000001</v>
       </c>
       <c r="N14">
-        <v>117.96008869664</v>
+        <v>0.200637</v>
       </c>
       <c r="O14">
-        <v>0.4448370394693902</v>
+        <v>0.0002451038787796015</v>
       </c>
       <c r="P14">
-        <v>0.4448370394693902</v>
+        <v>0.0002451038787796015</v>
       </c>
       <c r="Q14">
-        <v>45254.06869975373</v>
+        <v>20.569344542559</v>
       </c>
       <c r="R14">
-        <v>45254.06869975373</v>
+        <v>185.124100883031</v>
       </c>
       <c r="S14">
-        <v>0.1414666239662067</v>
+        <v>5.947861299481805E-05</v>
       </c>
       <c r="T14">
-        <v>0.1414666239662067</v>
+        <v>5.947861299481803E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>383.638815465241</v>
+        <v>307.5605876666667</v>
       </c>
       <c r="H15">
-        <v>383.638815465241</v>
+        <v>922.681763</v>
       </c>
       <c r="I15">
-        <v>0.3180189854130644</v>
+        <v>0.2426669593764425</v>
       </c>
       <c r="J15">
-        <v>0.3180189854130644</v>
+        <v>0.2426669593764425</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>56.681934886347</v>
+        <v>0.050766</v>
       </c>
       <c r="N15">
-        <v>56.681934886347</v>
+        <v>0.152298</v>
       </c>
       <c r="O15">
-        <v>0.2137521629971236</v>
+        <v>0.0001860515783747552</v>
       </c>
       <c r="P15">
-        <v>0.2137521629971236</v>
+        <v>0.0001860515783747551</v>
       </c>
       <c r="Q15">
-        <v>21745.39035807609</v>
+        <v>15.613620793486</v>
       </c>
       <c r="R15">
-        <v>21745.39035807609</v>
+        <v>140.522587141374</v>
       </c>
       <c r="S15">
-        <v>0.0679772460061932</v>
+        <v>4.514857081138971E-05</v>
       </c>
       <c r="T15">
-        <v>0.0679772460061932</v>
+        <v>4.51485708113897E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,247 +1396,247 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>383.638815465241</v>
+        <v>307.5605876666667</v>
       </c>
       <c r="H16">
-        <v>383.638815465241</v>
+        <v>922.681763</v>
       </c>
       <c r="I16">
-        <v>0.3180189854130644</v>
+        <v>0.2426669593764425</v>
       </c>
       <c r="J16">
-        <v>0.3180189854130644</v>
+        <v>0.2426669593764425</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.0759621256508906</v>
+        <v>92.54253899999999</v>
       </c>
       <c r="N16">
-        <v>0.0759621256508906</v>
+        <v>277.627617</v>
       </c>
       <c r="O16">
-        <v>0.0002864593224683333</v>
+        <v>0.3391578112862415</v>
       </c>
       <c r="P16">
-        <v>0.0002864593224683333</v>
+        <v>0.3391578112862414</v>
       </c>
       <c r="Q16">
-        <v>29.14201990492947</v>
+        <v>28462.43767900542</v>
       </c>
       <c r="R16">
-        <v>29.14201990492947</v>
+        <v>256161.9391110488</v>
       </c>
       <c r="S16">
-        <v>9.109950309349321E-05</v>
+        <v>0.08230239481360149</v>
       </c>
       <c r="T16">
-        <v>9.109950309349321E-05</v>
+        <v>0.08230239481360148</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>551.244695204251</v>
+        <v>307.5605876666667</v>
       </c>
       <c r="H17">
-        <v>551.244695204251</v>
+        <v>922.681763</v>
       </c>
       <c r="I17">
-        <v>0.4569565737778511</v>
+        <v>0.2426669593764425</v>
       </c>
       <c r="J17">
-        <v>0.4569565737778511</v>
+        <v>0.2426669593764425</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.0479429435210813</v>
+        <v>120.4648306666667</v>
       </c>
       <c r="N17">
-        <v>0.0479429435210813</v>
+        <v>361.394492</v>
       </c>
       <c r="O17">
-        <v>0.0001807967194244189</v>
+        <v>0.4414898137371655</v>
       </c>
       <c r="P17">
-        <v>0.0001807967194244189</v>
+        <v>0.4414898137371654</v>
       </c>
       <c r="Q17">
-        <v>26.42829328847308</v>
+        <v>37050.23411300549</v>
       </c>
       <c r="R17">
-        <v>26.42829328847308</v>
+        <v>333452.1070170494</v>
       </c>
       <c r="S17">
-        <v>8.261624945845792E-05</v>
+        <v>0.1071349906952699</v>
       </c>
       <c r="T17">
-        <v>8.261624945845792E-05</v>
+        <v>0.1071349906952699</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>551.244695204251</v>
+        <v>307.5605876666667</v>
       </c>
       <c r="H18">
-        <v>551.244695204251</v>
+        <v>922.681763</v>
       </c>
       <c r="I18">
-        <v>0.4569565737778511</v>
+        <v>0.2426669593764425</v>
       </c>
       <c r="J18">
-        <v>0.4569565737778511</v>
+        <v>0.2426669593764425</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>90.4100306999331</v>
+        <v>59.65883133333333</v>
       </c>
       <c r="N18">
-        <v>90.4100306999331</v>
+        <v>178.976494</v>
       </c>
       <c r="O18">
-        <v>0.3409435414915934</v>
+        <v>0.2186427871717284</v>
       </c>
       <c r="P18">
-        <v>0.3409435414915934</v>
+        <v>0.2186427871717284</v>
       </c>
       <c r="Q18">
-        <v>49838.0498165916</v>
+        <v>18348.70522438655</v>
       </c>
       <c r="R18">
-        <v>49838.0498165916</v>
+        <v>165138.3470194789</v>
       </c>
       <c r="S18">
-        <v>0.1557963925716852</v>
+        <v>0.05305738035255398</v>
       </c>
       <c r="T18">
-        <v>0.1557963925716852</v>
+        <v>0.05305738035255397</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>551.244695204251</v>
+        <v>307.5605876666667</v>
       </c>
       <c r="H19">
-        <v>551.244695204251</v>
+        <v>922.681763</v>
       </c>
       <c r="I19">
-        <v>0.4569565737778511</v>
+        <v>0.2426669593764425</v>
       </c>
       <c r="J19">
-        <v>0.4569565737778511</v>
+        <v>0.2426669593764425</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>117.96008869664</v>
+        <v>0.075973</v>
       </c>
       <c r="N19">
-        <v>117.96008869664</v>
+        <v>0.227919</v>
       </c>
       <c r="O19">
-        <v>0.4448370394693902</v>
+        <v>0.0002784323477103824</v>
       </c>
       <c r="P19">
-        <v>0.4448370394693902</v>
+        <v>0.0002784323477103824</v>
       </c>
       <c r="Q19">
-        <v>65024.87313984573</v>
+        <v>23.36630052679967</v>
       </c>
       <c r="R19">
-        <v>65024.87313984573</v>
+        <v>210.296704741197</v>
       </c>
       <c r="S19">
-        <v>0.2032712094454153</v>
+        <v>6.756633121092287E-05</v>
       </c>
       <c r="T19">
-        <v>0.2032712094454153</v>
+        <v>6.756633121092286E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>551.244695204251</v>
+        <v>390.777049</v>
       </c>
       <c r="H20">
-        <v>551.244695204251</v>
+        <v>1172.331147</v>
       </c>
       <c r="I20">
-        <v>0.4569565737778511</v>
+        <v>0.3083251953520915</v>
       </c>
       <c r="J20">
-        <v>0.4569565737778511</v>
+        <v>0.3083251953520915</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>56.681934886347</v>
+        <v>0.06687900000000001</v>
       </c>
       <c r="N20">
-        <v>56.681934886347</v>
+        <v>0.200637</v>
       </c>
       <c r="O20">
-        <v>0.2137521629971236</v>
+        <v>0.0002451038787796015</v>
       </c>
       <c r="P20">
-        <v>0.2137521629971236</v>
+        <v>0.0002451038787796015</v>
       </c>
       <c r="Q20">
-        <v>31245.61592001155</v>
+        <v>26.134778260071</v>
       </c>
       <c r="R20">
-        <v>31245.61592001155</v>
+        <v>235.213004340639</v>
       </c>
       <c r="S20">
-        <v>0.09767545604077037</v>
+        <v>7.5571701306276E-05</v>
       </c>
       <c r="T20">
-        <v>0.09767545604077037</v>
+        <v>7.557170130627598E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1706,1053 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>390.777049</v>
+      </c>
+      <c r="H21">
+        <v>1172.331147</v>
+      </c>
+      <c r="I21">
+        <v>0.3083251953520915</v>
+      </c>
+      <c r="J21">
+        <v>0.3083251953520915</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.050766</v>
+      </c>
+      <c r="N21">
+        <v>0.152298</v>
+      </c>
+      <c r="O21">
+        <v>0.0001860515783747552</v>
+      </c>
+      <c r="P21">
+        <v>0.0001860515783747551</v>
+      </c>
+      <c r="Q21">
+        <v>19.838187669534</v>
+      </c>
+      <c r="R21">
+        <v>178.543689025806</v>
+      </c>
+      <c r="S21">
+        <v>5.736438924796135E-05</v>
+      </c>
+      <c r="T21">
+        <v>5.736438924796133E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>390.777049</v>
+      </c>
+      <c r="H22">
+        <v>1172.331147</v>
+      </c>
+      <c r="I22">
+        <v>0.3083251953520915</v>
+      </c>
+      <c r="J22">
+        <v>0.3083251953520915</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>92.54253899999999</v>
+      </c>
+      <c r="N22">
+        <v>277.627617</v>
+      </c>
+      <c r="O22">
+        <v>0.3391578112862415</v>
+      </c>
+      <c r="P22">
+        <v>0.3391578112862414</v>
+      </c>
+      <c r="Q22">
+        <v>36163.50029738741</v>
+      </c>
+      <c r="R22">
+        <v>325471.5026764866</v>
+      </c>
+      <c r="S22">
+        <v>0.1045708984200182</v>
+      </c>
+      <c r="T22">
+        <v>0.1045708984200182</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>390.777049</v>
+      </c>
+      <c r="H23">
+        <v>1172.331147</v>
+      </c>
+      <c r="I23">
+        <v>0.3083251953520915</v>
+      </c>
+      <c r="J23">
+        <v>0.3083251953520915</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>120.4648306666667</v>
+      </c>
+      <c r="N23">
+        <v>361.394492</v>
+      </c>
+      <c r="O23">
+        <v>0.4414898137371655</v>
+      </c>
+      <c r="P23">
+        <v>0.4414898137371654</v>
+      </c>
+      <c r="Q23">
+        <v>47074.8910362047</v>
+      </c>
+      <c r="R23">
+        <v>423674.0193258423</v>
+      </c>
+      <c r="S23">
+        <v>0.13612243306647</v>
+      </c>
+      <c r="T23">
+        <v>0.13612243306647</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>390.777049</v>
+      </c>
+      <c r="H24">
+        <v>1172.331147</v>
+      </c>
+      <c r="I24">
+        <v>0.3083251953520915</v>
+      </c>
+      <c r="J24">
+        <v>0.3083251953520915</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>59.65883133333333</v>
+      </c>
+      <c r="N24">
+        <v>178.976494</v>
+      </c>
+      <c r="O24">
+        <v>0.2186427871717284</v>
+      </c>
+      <c r="P24">
+        <v>0.2186427871717284</v>
+      </c>
+      <c r="Q24">
+        <v>23313.30205522873</v>
+      </c>
+      <c r="R24">
+        <v>209819.7184970586</v>
+      </c>
+      <c r="S24">
+        <v>0.06741308006704894</v>
+      </c>
+      <c r="T24">
+        <v>0.06741308006704891</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>551.244695204251</v>
-      </c>
-      <c r="H21">
-        <v>551.244695204251</v>
-      </c>
-      <c r="I21">
-        <v>0.4569565737778511</v>
-      </c>
-      <c r="J21">
-        <v>0.4569565737778511</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.0759621256508906</v>
-      </c>
-      <c r="N21">
-        <v>0.0759621256508906</v>
-      </c>
-      <c r="O21">
-        <v>0.0002864593224683333</v>
-      </c>
-      <c r="P21">
-        <v>0.0002864593224683333</v>
-      </c>
-      <c r="Q21">
-        <v>41.8737188014922</v>
-      </c>
-      <c r="R21">
-        <v>41.8737188014922</v>
-      </c>
-      <c r="S21">
-        <v>0.0001308994705218542</v>
-      </c>
-      <c r="T21">
-        <v>0.0001308994705218542</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>390.777049</v>
+      </c>
+      <c r="H25">
+        <v>1172.331147</v>
+      </c>
+      <c r="I25">
+        <v>0.3083251953520915</v>
+      </c>
+      <c r="J25">
+        <v>0.3083251953520915</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.075973</v>
+      </c>
+      <c r="N25">
+        <v>0.227919</v>
+      </c>
+      <c r="O25">
+        <v>0.0002784323477103824</v>
+      </c>
+      <c r="P25">
+        <v>0.0002784323477103824</v>
+      </c>
+      <c r="Q25">
+        <v>29.688504743677</v>
+      </c>
+      <c r="R25">
+        <v>267.196542693093</v>
+      </c>
+      <c r="S25">
+        <v>8.584770800014513E-05</v>
+      </c>
+      <c r="T25">
+        <v>8.58477080001451E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>568.7975463333333</v>
+      </c>
+      <c r="H26">
+        <v>1706.392639</v>
+      </c>
+      <c r="I26">
+        <v>0.4487843260954031</v>
+      </c>
+      <c r="J26">
+        <v>0.4487843260954031</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.06687900000000001</v>
+      </c>
+      <c r="N26">
+        <v>0.200637</v>
+      </c>
+      <c r="O26">
+        <v>0.0002451038787796015</v>
+      </c>
+      <c r="P26">
+        <v>0.0002451038787796015</v>
+      </c>
+      <c r="Q26">
+        <v>38.04061110122701</v>
+      </c>
+      <c r="R26">
+        <v>342.3654999110431</v>
+      </c>
+      <c r="S26">
+        <v>0.0001099987790614729</v>
+      </c>
+      <c r="T26">
+        <v>0.0001099987790614728</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>568.7975463333333</v>
+      </c>
+      <c r="H27">
+        <v>1706.392639</v>
+      </c>
+      <c r="I27">
+        <v>0.4487843260954031</v>
+      </c>
+      <c r="J27">
+        <v>0.4487843260954031</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M27">
+        <v>0.050766</v>
+      </c>
+      <c r="N27">
+        <v>0.152298</v>
+      </c>
+      <c r="O27">
+        <v>0.0001860515783747552</v>
+      </c>
+      <c r="P27">
+        <v>0.0001860515783747551</v>
+      </c>
+      <c r="Q27">
+        <v>28.875576237158</v>
+      </c>
+      <c r="R27">
+        <v>259.880186134422</v>
+      </c>
+      <c r="S27">
+        <v>8.349703221990058E-05</v>
+      </c>
+      <c r="T27">
+        <v>8.349703221990055E-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>568.7975463333333</v>
+      </c>
+      <c r="H28">
+        <v>1706.392639</v>
+      </c>
+      <c r="I28">
+        <v>0.4487843260954031</v>
+      </c>
+      <c r="J28">
+        <v>0.4487843260954031</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>92.54253899999999</v>
+      </c>
+      <c r="N28">
+        <v>277.627617</v>
+      </c>
+      <c r="O28">
+        <v>0.3391578112862415</v>
+      </c>
+      <c r="P28">
+        <v>0.3391578112862414</v>
+      </c>
+      <c r="Q28">
+        <v>52637.9691146568</v>
+      </c>
+      <c r="R28">
+        <v>473741.7220319113</v>
+      </c>
+      <c r="S28">
+        <v>0.1522087097780878</v>
+      </c>
+      <c r="T28">
+        <v>0.1522087097780878</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>568.7975463333333</v>
+      </c>
+      <c r="H29">
+        <v>1706.392639</v>
+      </c>
+      <c r="I29">
+        <v>0.4487843260954031</v>
+      </c>
+      <c r="J29">
+        <v>0.4487843260954031</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>120.4648306666667</v>
+      </c>
+      <c r="N29">
+        <v>361.394492</v>
+      </c>
+      <c r="O29">
+        <v>0.4414898137371655</v>
+      </c>
+      <c r="P29">
+        <v>0.4414898137371654</v>
+      </c>
+      <c r="Q29">
+        <v>68520.10010266049</v>
+      </c>
+      <c r="R29">
+        <v>616680.9009239444</v>
+      </c>
+      <c r="S29">
+        <v>0.1981337085360189</v>
+      </c>
+      <c r="T29">
+        <v>0.1981337085360188</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>568.7975463333333</v>
+      </c>
+      <c r="H30">
+        <v>1706.392639</v>
+      </c>
+      <c r="I30">
+        <v>0.4487843260954031</v>
+      </c>
+      <c r="J30">
+        <v>0.4487843260954031</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>59.65883133333333</v>
+      </c>
+      <c r="N30">
+        <v>178.976494</v>
+      </c>
+      <c r="O30">
+        <v>0.2186427871717284</v>
+      </c>
+      <c r="P30">
+        <v>0.2186427871717284</v>
+      </c>
+      <c r="Q30">
+        <v>33933.79687951419</v>
+      </c>
+      <c r="R30">
+        <v>305404.1719156277</v>
+      </c>
+      <c r="S30">
+        <v>0.09812345589648479</v>
+      </c>
+      <c r="T30">
+        <v>0.09812345589648477</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>568.7975463333333</v>
+      </c>
+      <c r="H31">
+        <v>1706.392639</v>
+      </c>
+      <c r="I31">
+        <v>0.4487843260954031</v>
+      </c>
+      <c r="J31">
+        <v>0.4487843260954031</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.075973</v>
+      </c>
+      <c r="N31">
+        <v>0.227919</v>
+      </c>
+      <c r="O31">
+        <v>0.0002784323477103824</v>
+      </c>
+      <c r="P31">
+        <v>0.0002784323477103824</v>
+      </c>
+      <c r="Q31">
+        <v>43.21325598758234</v>
+      </c>
+      <c r="R31">
+        <v>388.919303888241</v>
+      </c>
+      <c r="S31">
+        <v>0.0001249560735303649</v>
+      </c>
+      <c r="T31">
+        <v>0.0001249560735303649</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G32">
+        <v>0.007196999999999999</v>
+      </c>
+      <c r="H32">
+        <v>0.021591</v>
+      </c>
+      <c r="I32">
+        <v>5.678471743996927E-06</v>
+      </c>
+      <c r="J32">
+        <v>5.678471743996927E-06</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.06687900000000001</v>
+      </c>
+      <c r="N32">
+        <v>0.200637</v>
+      </c>
+      <c r="O32">
+        <v>0.0002451038787796015</v>
+      </c>
+      <c r="P32">
+        <v>0.0002451038787796015</v>
+      </c>
+      <c r="Q32">
+        <v>0.000481328163</v>
+      </c>
+      <c r="R32">
+        <v>0.004331953467</v>
+      </c>
+      <c r="S32">
+        <v>1.391815449994015E-09</v>
+      </c>
+      <c r="T32">
+        <v>1.391815449994015E-09</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G33">
+        <v>0.007196999999999999</v>
+      </c>
+      <c r="H33">
+        <v>0.021591</v>
+      </c>
+      <c r="I33">
+        <v>5.678471743996927E-06</v>
+      </c>
+      <c r="J33">
+        <v>5.678471743996927E-06</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M33">
+        <v>0.050766</v>
+      </c>
+      <c r="N33">
+        <v>0.152298</v>
+      </c>
+      <c r="O33">
+        <v>0.0001860515783747552</v>
+      </c>
+      <c r="P33">
+        <v>0.0001860515783747551</v>
+      </c>
+      <c r="Q33">
+        <v>0.000365362902</v>
+      </c>
+      <c r="R33">
+        <v>0.003288266118</v>
+      </c>
+      <c r="S33">
+        <v>1.056488630727077E-09</v>
+      </c>
+      <c r="T33">
+        <v>1.056488630727076E-09</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G34">
+        <v>0.007196999999999999</v>
+      </c>
+      <c r="H34">
+        <v>0.021591</v>
+      </c>
+      <c r="I34">
+        <v>5.678471743996927E-06</v>
+      </c>
+      <c r="J34">
+        <v>5.678471743996927E-06</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>92.54253899999999</v>
+      </c>
+      <c r="N34">
+        <v>277.627617</v>
+      </c>
+      <c r="O34">
+        <v>0.3391578112862415</v>
+      </c>
+      <c r="P34">
+        <v>0.3391578112862414</v>
+      </c>
+      <c r="Q34">
+        <v>0.6660286531829999</v>
+      </c>
+      <c r="R34">
+        <v>5.994257878647</v>
+      </c>
+      <c r="S34">
+        <v>1.925898048144764E-06</v>
+      </c>
+      <c r="T34">
+        <v>1.925898048144764E-06</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G35">
+        <v>0.007196999999999999</v>
+      </c>
+      <c r="H35">
+        <v>0.021591</v>
+      </c>
+      <c r="I35">
+        <v>5.678471743996927E-06</v>
+      </c>
+      <c r="J35">
+        <v>5.678471743996927E-06</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>120.4648306666667</v>
+      </c>
+      <c r="N35">
+        <v>361.394492</v>
+      </c>
+      <c r="O35">
+        <v>0.4414898137371655</v>
+      </c>
+      <c r="P35">
+        <v>0.4414898137371654</v>
+      </c>
+      <c r="Q35">
+        <v>0.8669853863079999</v>
+      </c>
+      <c r="R35">
+        <v>7.802868476772</v>
+      </c>
+      <c r="S35">
+        <v>2.506987432568961E-06</v>
+      </c>
+      <c r="T35">
+        <v>2.50698743256896E-06</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G36">
+        <v>0.007196999999999999</v>
+      </c>
+      <c r="H36">
+        <v>0.021591</v>
+      </c>
+      <c r="I36">
+        <v>5.678471743996927E-06</v>
+      </c>
+      <c r="J36">
+        <v>5.678471743996927E-06</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>59.65883133333333</v>
+      </c>
+      <c r="N36">
+        <v>178.976494</v>
+      </c>
+      <c r="O36">
+        <v>0.2186427871717284</v>
+      </c>
+      <c r="P36">
+        <v>0.2186427871717284</v>
+      </c>
+      <c r="Q36">
+        <v>0.4293646091059999</v>
+      </c>
+      <c r="R36">
+        <v>3.864281481954</v>
+      </c>
+      <c r="S36">
+        <v>1.241556888983394E-06</v>
+      </c>
+      <c r="T36">
+        <v>1.241556888983393E-06</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G37">
+        <v>0.007196999999999999</v>
+      </c>
+      <c r="H37">
+        <v>0.021591</v>
+      </c>
+      <c r="I37">
+        <v>5.678471743996927E-06</v>
+      </c>
+      <c r="J37">
+        <v>5.678471743996927E-06</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.075973</v>
+      </c>
+      <c r="N37">
+        <v>0.227919</v>
+      </c>
+      <c r="O37">
+        <v>0.0002784323477103824</v>
+      </c>
+      <c r="P37">
+        <v>0.0002784323477103824</v>
+      </c>
+      <c r="Q37">
+        <v>0.0005467776809999999</v>
+      </c>
+      <c r="R37">
+        <v>0.004920999129</v>
+      </c>
+      <c r="S37">
+        <v>1.581070219088134E-09</v>
+      </c>
+      <c r="T37">
+        <v>1.581070219088134E-09</v>
       </c>
     </row>
   </sheetData>
